--- a/biology/Médecine/Rectosigmoïdoscopie/Rectosigmoïdoscopie.xlsx
+++ b/biology/Médecine/Rectosigmoïdoscopie/Rectosigmoïdoscopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rectosigmo%C3%AFdoscopie</t>
+          <t>Rectosigmoïdoscopie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La rectosigmoïdoscopie est un examen visuel des parois du rectum, du côlon sigmoïde et du côlon gauche.
 Cet examen est maintenant supplanté par la coloscopie totale. Surtout pour les examens diagnostiques, moins pour le dépistage des tumeurs rectocoliques.
